--- a/docs/Parts List.xlsx
+++ b/docs/Parts List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="6860" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -42,16 +42,91 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>Parts List</t>
+  </si>
+  <si>
+    <t>Maxon Motors</t>
+  </si>
+  <si>
+    <t>https://tris10.com/product/controlmotion</t>
+  </si>
+  <si>
+    <t>LMD18200T</t>
+  </si>
+  <si>
+    <t>Motor Controller Circuit</t>
+  </si>
+  <si>
+    <t>Motors of motion</t>
+  </si>
+  <si>
+    <t>Gyro</t>
+  </si>
+  <si>
+    <t>LiDar</t>
+  </si>
+  <si>
+    <t>Freetronics motor controller</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>HC-RS04</t>
+  </si>
+  <si>
+    <t>Ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>http://playground.arduino.cc/Code/NewPing</t>
+  </si>
+  <si>
+    <t>Pixy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,14 +148,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,32 +460,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="5" max="5" width="73.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>